--- a/Lab7-Timings.xlsx
+++ b/Lab7-Timings.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2030\2030-GA-Files\2030-GA-Files\lab\instructs-NEW\lab7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwill\Documents\GitHub\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{533B807F-7BB1-49BF-BC6B-75E9709D5697}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8320" windowHeight="1670" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -413,25 +414,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +443,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -451,7 +452,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -474,23 +475,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5300000</v>
       </c>
       <c r="C5">
         <f>2*B5</f>
-        <v>0</v>
+        <v>10600000</v>
       </c>
       <c r="E5">
         <f>2*C5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -503,46 +504,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>15000</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>18100</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36200</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>21500</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>

--- a/Lab7-Timings.xlsx
+++ b/Lab7-Timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwill\Documents\GitHub\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{533B807F-7BB1-49BF-BC6B-75E9709D5697}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E55C730F-D883-4BCE-9D19-C16B423EB341}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8320" windowHeight="1670" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Lab7-Timings.xlsx
+++ b/Lab7-Timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwill\Documents\GitHub\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E55C730F-D883-4BCE-9D19-C16B423EB341}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34178AFD-7F38-47C7-989B-6BCBCE789F74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8320" windowHeight="1670" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Sorting!</t>
   </si>
@@ -70,6 +70,36 @@
   </si>
   <si>
     <t>Time to Sort Size of 2 Million</t>
+  </si>
+  <si>
+    <t>vector too long</t>
+  </si>
+  <si>
+    <t>vec too long</t>
+  </si>
+  <si>
+    <t>Bubble sort</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>length:</t>
+  </si>
+  <si>
+    <t>Time to 2mil</t>
+  </si>
+  <si>
+    <t>Bubble</t>
   </si>
 </sst>
 </file>
@@ -129,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,6 +181,2951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bubble</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2769999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.484999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C660-44A3-B66D-30D1673ADACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376166624"/>
+        <c:axId val="376161048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376166624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376161048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376161048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376166624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insertion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.5477809591982826E-2"/>
+                  <c:y val="-0.13908925318761384"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.732999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9743-4AE8-B2DB-74B969577912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376169248"/>
+        <c:axId val="376172528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376169248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376172528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376172528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376169248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Selection</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$17:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.097000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D59-4786-A0FA-AE5D6A0E9635}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="383048496"/>
+        <c:axId val="383052104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="383048496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383052104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="383052104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383048496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D78545-2878-4005-98B7-0A5BC6DC775A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026C2553-76A6-454C-AC4A-8676517209B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C299F27E-855A-4630-86AE-EB61A5491309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,10 +3391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -429,7 +3405,7 @@
     <col min="4" max="4" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="7" max="7" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -486,83 +3462,243 @@
         <f>2*B5</f>
         <v>10600000</v>
       </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5">
         <f>2*C5</f>
         <v>21200000</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15000</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C10" si="0">2*B6</f>
-        <v>0</v>
+        <f t="shared" ref="C6:C9" si="0">2*B6</f>
+        <v>30000</v>
+      </c>
+      <c r="D6">
+        <v>8.2769999999999992</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E10" si="1">2*C6</f>
-        <v>0</v>
+        <f t="shared" ref="E6:E9" si="1">2*C6</f>
+        <v>60000</v>
+      </c>
+      <c r="F6">
+        <v>35.484999999999999</v>
+      </c>
+      <c r="G6">
+        <v>55682.45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>15000</v>
+        <v>18100</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>36200</v>
+      </c>
+      <c r="D7">
+        <v>12.115</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>72400</v>
+      </c>
+      <c r="F7">
+        <v>52.732999999999997</v>
+      </c>
+      <c r="G7">
+        <v>23376.62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>18100</v>
+        <v>21500</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>36200</v>
+        <v>43000</v>
+      </c>
+      <c r="D8">
+        <v>17.097000000000001</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>72400</v>
+        <v>86000</v>
+      </c>
+      <c r="F8">
+        <v>70.95</v>
+      </c>
+      <c r="G8">
+        <v>42001.949902</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>21500</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>86000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>2*B10</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>2*C10</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>15000</v>
+      </c>
+      <c r="C17">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D17">
+        <v>18100</v>
+      </c>
+      <c r="E17">
+        <v>4.47</v>
+      </c>
+      <c r="F17">
+        <v>21500</v>
+      </c>
+      <c r="G17">
+        <v>4.6870000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>30000</v>
+      </c>
+      <c r="C18">
+        <v>8.2769999999999992</v>
+      </c>
+      <c r="D18">
+        <v>36200</v>
+      </c>
+      <c r="E18">
+        <v>12.115</v>
+      </c>
+      <c r="F18">
+        <v>43000</v>
+      </c>
+      <c r="G18">
+        <v>17.097000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>60000</v>
+      </c>
+      <c r="C19">
+        <v>35.484999999999999</v>
+      </c>
+      <c r="D19">
+        <v>86000</v>
+      </c>
+      <c r="E19">
+        <v>52.732999999999997</v>
+      </c>
+      <c r="F19">
+        <v>86000</v>
+      </c>
+      <c r="G19">
+        <v>70.95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3">
+        <f>0.0000000141*C35^2-0.000362*C35+6.45</f>
+        <v>55682.45</v>
+      </c>
+      <c r="D37" s="3">
+        <f>0.00000000579*C35^2+0.000108*C35+0.62</f>
+        <v>23376.62</v>
+      </c>
+      <c r="E37" s="3">
+        <f>0.0000000105*C35^2-0.000098+1.95</f>
+        <v>42001.949902</v>
       </c>
     </row>
   </sheetData>
@@ -570,5 +3706,6 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>